--- a/ActitimeMavenProj/src/test/resources/data/TestScript.xlsx
+++ b/ActitimeMavenProj/src/test/resources/data/TestScript.xlsx
@@ -31,9 +31,6 @@
     <t>738778281</t>
   </si>
   <si>
-    <t>HDFC_002</t>
-  </si>
-  <si>
     <t>999999999999</t>
   </si>
   <si>
@@ -47,6 +44,9 @@
   </si>
   <si>
     <t>HDFC_003</t>
+  </si>
+  <si>
+    <t>HDFC_004</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +425,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -433,13 +433,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -453,10 +453,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/ActitimeMavenProj/src/test/resources/data/TestScript.xlsx
+++ b/ActitimeMavenProj/src/test/resources/data/TestScript.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14475" windowHeight="4320"/>
   </bookViews>
   <sheets>
     <sheet name="Create Customer" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Customer Name</t>
   </si>
@@ -37,16 +38,13 @@
     <t>Task Name</t>
   </si>
   <si>
-    <t>Task 1</t>
-  </si>
-  <si>
     <t>Task 2</t>
   </si>
   <si>
-    <t>HDFC_003</t>
-  </si>
-  <si>
     <t>HDFC_004</t>
+  </si>
+  <si>
+    <t>HDFC_005</t>
   </si>
 </sst>
 </file>
@@ -408,7 +406,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +431,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -447,13 +445,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
